--- a/web-scraping/files/movies.xlsx
+++ b/web-scraping/files/movies.xlsx
@@ -49,7 +49,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,16 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,49 +391,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/web-scraping/files/movies.xlsx
+++ b/web-scraping/files/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Movie</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>The Night Train to Kathmandu</t>
+  </si>
+  <si>
+    <t>skhgfkjs</t>
   </si>
   <si>
     <t>Beyond the Dream</t>
@@ -81,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -391,13 +397,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -425,9 +431,14 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
